--- a/self-switching-off robot/8x8 Dotmatrix display.xlsx
+++ b/self-switching-off robot/8x8 Dotmatrix display.xlsx
@@ -14,16 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>8x8 Dot matrix display</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,13 +48,45 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="24"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Angsana New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -55,7 +96,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor theme="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -86,11 +133,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -385,98 +444,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.5">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="34.5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="39.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="34.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="34.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="34.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="34.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="34.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+    <row r="1" spans="1:11" ht="37.5">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="str">
+        <f t="shared" ref="K1:K8" si="0">A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1&amp;H1&amp;I1</f>
+        <v>B10000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="37.5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>B11000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="37.5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>B10100101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="37.5">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>B10011001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>B10011001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="37.5">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>B10000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="37.5">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>B10000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="37.5">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>B10000001</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="39.75">
-      <c r="C12" s="2" t="s">
-        <v>0</v>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34.5">
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="39.75">
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/self-switching-off robot/8x8 Dotmatrix display.xlsx
+++ b/self-switching-off robot/8x8 Dotmatrix display.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K8" sqref="K1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -492,8 +492,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
+      <c r="B2" s="4">
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -513,20 +513,20 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
+      <c r="I2" s="4">
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B11000011</v>
+        <v>B01000010</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="37.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
+      <c r="B3" s="4">
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -546,45 +546,45 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <v>1</v>
+      <c r="I3" s="4">
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B10100101</v>
+        <v>B00100100</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B10011001</v>
+        <v>B01000010</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="37.5">
@@ -600,11 +600,11 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -617,15 +617,15 @@
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B10011001</v>
+        <v>B10000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.5">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
+      <c r="B6" s="4">
+        <v>0</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -645,56 +645,56 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <v>1</v>
+      <c r="I6" s="4">
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B10000001</v>
+        <v>B00000000</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="37.5">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
+      <c r="B7" s="4">
+        <v>0</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
+      <c r="I7" s="4">
+        <v>0</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B10000001</v>
+        <v>B00111100</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="37.5">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -708,15 +708,15 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B10000001</v>
+        <v>B01000010</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.75">

--- a/self-switching-off robot/8x8 Dotmatrix display.xlsx
+++ b/self-switching-off robot/8x8 Dotmatrix display.xlsx
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K1:K8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -459,8 +459,8 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3">
-        <v>1</v>
+      <c r="B1" s="4">
+        <v>0</v>
       </c>
       <c r="C1" s="4">
         <v>0</v>
@@ -480,12 +480,12 @@
       <c r="H1" s="4">
         <v>0</v>
       </c>
-      <c r="I1" s="3">
-        <v>1</v>
+      <c r="I1" s="4">
+        <v>0</v>
       </c>
       <c r="K1" s="2" t="str">
         <f t="shared" ref="K1:K8" si="0">A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1&amp;H1&amp;I1</f>
-        <v>B10000001</v>
+        <v>B00000000</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="37.5">
@@ -525,8 +525,8 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -546,26 +546,26 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
+      <c r="I3" s="3">
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B00100100</v>
+        <v>B10100101</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -573,18 +573,18 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B01000010</v>
+        <v>B10100101</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="37.5">
@@ -597,8 +597,8 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
+      <c r="D5" s="3">
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -606,8 +606,8 @@
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
+      <c r="G5" s="3">
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B10000001</v>
+        <v>B10100101</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.5">
@@ -627,8 +627,8 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
+      <c r="C6" s="3">
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -642,15 +642,15 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
+      <c r="H6" s="3">
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B00000000</v>
+        <v>B01000010</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="37.5">
@@ -663,17 +663,17 @@
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -683,7 +683,7 @@
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B00111100</v>
+        <v>B00000000</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="37.5">
@@ -693,30 +693,30 @@
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B01000010</v>
+        <v>B00111100</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.75">

--- a/self-switching-off robot/8x8 Dotmatrix display.xlsx
+++ b/self-switching-off robot/8x8 Dotmatrix display.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K1" sqref="K1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -495,38 +495,38 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B01000010</v>
+        <v>B00111100</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="37.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
+      <c r="B3" s="4">
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -546,20 +546,20 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <v>1</v>
+      <c r="I3" s="4">
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B10100101</v>
+        <v>B00100100</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
+      <c r="B4" s="4">
+        <v>0</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -579,20 +579,20 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
+      <c r="I4" s="4">
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B10100101</v>
+        <v>B00100100</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="37.5">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
+      <c r="B5" s="4">
+        <v>0</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -600,24 +600,24 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
+      <c r="I5" s="4">
+        <v>0</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B10100101</v>
+        <v>B00111000</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.5">
@@ -627,14 +627,14 @@
       <c r="B6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -642,15 +642,15 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
-        <v>1</v>
+      <c r="H6" s="4">
+        <v>0</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B01000010</v>
+        <v>B00110000</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="37.5">
@@ -663,14 +663,14 @@
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
+      <c r="D7" s="3">
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
+      <c r="F7" s="3">
+        <v>1</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -683,7 +683,7 @@
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B00000000</v>
+        <v>B00101000</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="37.5">
@@ -699,11 +699,11 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>B00111100</v>
+        <v>B00100100</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="39.75">
